--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Crasset\Documents\Etudes\BLOC 3\Computation Structures\Projets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Crasset\Documents\GitHub\Assembly-Labyrinth\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>R1</t>
   </si>
@@ -159,33 +159,12 @@
   </si>
   <si>
     <t>temp</t>
-  </si>
-  <si>
-    <t>word offset</t>
-  </si>
-  <si>
-    <t>byte offset</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>dest</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>word to be updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,10 +497,10 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5703125" customWidth="1"/>
   </cols>
@@ -604,56 +583,35 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>R1</t>
   </si>
@@ -158,7 +158,13 @@
     <t>XP</t>
   </si>
   <si>
-    <t>temp</t>
+    <t>n_valid_neighbours</t>
+  </si>
+  <si>
+    <t>neighbour</t>
+  </si>
+  <si>
+    <t>neighbours</t>
   </si>
 </sst>
 </file>
@@ -497,12 +503,13 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,19 +577,22 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -637,6 +647,9 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
